--- a/Results/zero-shot.xlsx
+++ b/Results/zero-shot.xlsx
@@ -10157,8 +10157,8 @@
   <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A47" sqref="$A47:$XFD47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -14631,8 +14631,8 @@
   <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -19107,8 +19107,8 @@
   <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="$A44:$XFD44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -23583,8 +23583,8 @@
   <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="$A48:$XFD48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -28060,7 +28060,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -28445,7 +28445,7 @@
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>826</v>
       </c>
       <c r="F9" s="3">
